--- a/data/clinical_information_english_version.xlsx
+++ b/data/clinical_information_english_version.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="615" windowWidth="17655" windowHeight="7650"/>
+    <workbookView xWindow="1080" yWindow="615" windowWidth="17655" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Normal" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,22 +205,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,6 +283,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -306,24 +296,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,9 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
-    </sheetView>
+    <sheetView topLeftCell="A70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -659,659 +629,659 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="16">
+      <c r="A2" s="12">
+        <v>9387261</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10">
+        <v>28</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8">
+        <v>9387262</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8">
+        <v>9387279</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8">
+        <v>9558701</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6">
+        <v>9558702</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
+        <v>9558703</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11">
+        <v>37</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8">
+        <v>9558704</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11">
+        <v>40</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>9558705</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>55</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>9558706</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11">
+        <v>28</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
+        <v>9558707</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11">
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>9558708</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11">
+        <v>53</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8">
+        <v>9558709</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11">
+        <v>25</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>9558710</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12">
+        <v>9558711</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10">
+        <v>27</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12">
+        <v>9558712</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="12">
+        <v>52</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12">
+        <v>9558713</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
+        <v>27</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12">
+        <v>9558714</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="10">
+        <v>27</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12">
+        <v>9558715</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="10">
+        <v>28</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12">
+        <v>9558716</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="10">
+        <v>29</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="13">
+        <v>9558717</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="13">
+        <v>29</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12">
+        <v>9558719</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="10">
+        <v>29</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12">
+        <v>9558720</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10">
+        <v>28</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="14">
+        <v>9558723</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="14">
+        <v>34</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="14">
+        <v>9558725</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="14">
+        <v>30</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="14">
+        <v>9558726</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14">
+        <v>31</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="14">
+        <v>9558728</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14">
+        <v>26</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="14">
+        <v>9558729</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="14">
+        <v>28</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="14">
+        <v>9558732</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14">
+        <v>34</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="14">
+        <v>9558733</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="14">
+        <v>51</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="14">
+        <v>9558735</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="14">
+        <v>38</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="14">
+        <v>9558736</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="14">
+        <v>27</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="14">
+        <v>9558737</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="14">
+        <v>25</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="16">
         <v>9558738</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C34" s="6">
         <v>40</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7">
-        <v>9559402</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7">
-        <v>73</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7">
-        <v>9559403</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7">
-        <v>60</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7">
-        <v>9559404</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7">
-        <v>63</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7">
-        <v>9559405</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7">
-        <v>80</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7">
-        <v>9559406</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7">
-        <v>44</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7">
-        <v>9559407</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7">
-        <v>63</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7">
-        <v>9559408</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7">
-        <v>68</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7">
-        <v>9559409</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7">
-        <v>22</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7">
-        <v>9559410</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7">
-        <v>9559421</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7">
-        <v>65</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7">
-        <v>9559422</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7">
-        <v>60</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7">
-        <v>9559424</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7">
-        <v>53</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7">
-        <v>9559425</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7">
-        <v>32</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7">
-        <v>9559426</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7">
-        <v>49</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7">
-        <v>9559436</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7">
-        <v>72</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7">
-        <v>9559439</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="7">
-        <v>63</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7">
-        <v>9559442</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7">
-        <v>60</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7">
-        <v>9559445</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7">
-        <v>56</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="7">
-        <v>9559448</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="7">
-        <v>55</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7">
-        <v>9559449</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="7">
-        <v>57</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8">
-        <v>9559184</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="6">
-        <v>28</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="8">
-        <v>9559185</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="6">
-        <v>30</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8">
-        <v>9559186</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="6">
-        <v>26</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="8">
-        <v>9559187</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="6">
-        <v>26</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="6">
-        <v>9558702</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="6">
-        <v>27</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="8">
-        <v>9558710</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="6">
-        <v>30</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8">
-        <v>9387279</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="6">
-        <v>60</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="8">
-        <v>9387262</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="6">
-        <v>30</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="8">
-        <v>9559205</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="6">
-        <v>30</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="8">
-        <v>9559190</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="6">
-        <v>26</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="8">
-        <v>9559501</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="6">
-        <v>56</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="8">
-        <v>9559500</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="6">
-        <v>46</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="16" t="s">
@@ -1320,39 +1290,39 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="8">
-        <v>9559502</v>
+        <v>9558739</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="6">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="8">
-        <v>9559503</v>
+        <v>9558740</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" s="6">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>16</v>
@@ -1360,16 +1330,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="8">
-        <v>9559516</v>
+        <v>9558741</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" s="6">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>16</v>
@@ -1380,36 +1350,36 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="8">
-        <v>9559517</v>
+        <v>9558742</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C38" s="6">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="8">
-        <v>9559520</v>
+        <v>9558743</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="6">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>16</v>
@@ -1420,79 +1390,79 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="8">
-        <v>9559522</v>
+        <v>9558744</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C40" s="6">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="8">
-        <v>9559523</v>
+        <v>9558746</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C41" s="6">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="8">
-        <v>9559526</v>
+        <v>9558747</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C42" s="6">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="8">
-        <v>9559529</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="11">
-        <v>52</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>13</v>
+        <v>9558748</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="6">
+        <v>72</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>16</v>
@@ -1500,36 +1470,36 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="8">
-        <v>9559525</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="11">
+        <v>9558750</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="6">
         <v>52</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>13</v>
+      <c r="D44" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="8">
-        <v>9558701</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="11">
-        <v>26</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>12</v>
+        <v>9558752</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="6">
+        <v>58</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>16</v>
@@ -1540,16 +1510,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="8">
-        <v>9558703</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="11">
-        <v>37</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>12</v>
+        <v>9558753</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="6">
+        <v>43</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>16</v>
@@ -1560,16 +1530,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="8">
-        <v>9558704</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="11">
-        <v>40</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>12</v>
+        <v>9558754</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="6">
+        <v>50</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>16</v>
@@ -1580,16 +1550,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="8">
-        <v>9558705</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="11">
-        <v>55</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>12</v>
+        <v>9558755</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="6">
+        <v>52</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>16</v>
@@ -1600,16 +1570,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="8">
-        <v>9558706</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="11">
-        <v>28</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>12</v>
+        <v>9558756</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="6">
+        <v>27</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>16</v>
@@ -1620,16 +1590,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="8">
-        <v>9558707</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="11">
-        <v>25</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>12</v>
+        <v>9558757</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="6">
+        <v>69</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>16</v>
@@ -1640,16 +1610,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="8">
-        <v>9558708</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="11">
-        <v>53</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>12</v>
+        <v>9558758</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="6">
+        <v>61</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>16</v>
@@ -1660,56 +1630,56 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="8">
-        <v>9558709</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="11">
-        <v>25</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>12</v>
+        <v>9558759</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="6">
+        <v>30</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="12">
-        <v>9558711</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="10">
-        <v>27</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>12</v>
+      <c r="A53" s="8">
+        <v>9558760</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="6">
+        <v>41</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="12">
-        <v>9558712</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="12">
-        <v>52</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>12</v>
+      <c r="A54" s="8">
+        <v>9559181</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="6">
+        <v>38</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>16</v>
@@ -1719,17 +1689,17 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="12">
-        <v>9558713</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="10">
-        <v>27</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>12</v>
+      <c r="A55" s="8">
+        <v>9559182</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="6">
+        <v>62</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>16</v>
@@ -1739,37 +1709,37 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="12">
-        <v>9558714</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="10">
-        <v>27</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>12</v>
+      <c r="A56" s="8">
+        <v>9559184</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="6">
+        <v>28</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="12">
-        <v>9387261</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="10">
-        <v>28</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>12</v>
+      <c r="A57" s="8">
+        <v>9559185</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="6">
+        <v>30</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>16</v>
@@ -1779,36 +1749,36 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="12">
-        <v>9558715</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="10">
-        <v>28</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>12</v>
+      <c r="A58" s="8">
+        <v>9559186</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="6">
+        <v>26</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="12">
-        <v>9558716</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="10">
-        <v>29</v>
-      </c>
-      <c r="D59" s="10" t="s">
+      <c r="A59" s="8">
+        <v>9559187</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="6">
+        <v>26</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="16" t="s">
@@ -1819,36 +1789,36 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="12">
-        <v>9558720</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="10">
-        <v>28</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>29</v>
+      <c r="A60" s="8">
+        <v>9559190</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="6">
+        <v>26</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F60" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="12">
-        <v>9558719</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="10">
-        <v>29</v>
-      </c>
-      <c r="D61" s="10" t="s">
+      <c r="A61" s="8">
+        <v>9559205</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="6">
+        <v>30</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E61" s="16" t="s">
@@ -1859,16 +1829,16 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="13">
-        <v>9558717</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="13">
-        <v>29</v>
-      </c>
-      <c r="D62" s="13" t="s">
+      <c r="A62" s="8">
+        <v>9559214</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="6">
+        <v>62</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E62" s="16" t="s">
@@ -1879,97 +1849,97 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="14">
-        <v>9558723</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="14">
-        <v>34</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>29</v>
+      <c r="A63" s="15">
+        <v>9559215</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="6">
+        <v>60</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="14">
-        <v>9558725</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="14">
-        <v>30</v>
-      </c>
-      <c r="D64" s="14" t="s">
+      <c r="A64" s="7">
+        <v>9559402</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="7">
+        <v>73</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="14">
-        <v>9558726</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="14">
-        <v>31</v>
-      </c>
-      <c r="D65" s="14" t="s">
+      <c r="A65" s="7">
+        <v>9559403</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="7">
+        <v>60</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="14">
-        <v>9558728</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="14">
-        <v>26</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>12</v>
+      <c r="A66" s="7">
+        <v>9559404</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="7">
+        <v>63</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F66" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="14">
-        <v>9558729</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="14">
-        <v>28</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>12</v>
+      <c r="A67" s="7">
+        <v>9559405</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="7">
+        <v>80</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>16</v>
@@ -1979,57 +1949,57 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="14">
-        <v>9558732</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="14">
-        <v>34</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>12</v>
+      <c r="A68" s="7">
+        <v>9559406</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="7">
+        <v>44</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="14">
-        <v>9558733</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="14">
-        <v>51</v>
-      </c>
-      <c r="D69" s="14" t="s">
+      <c r="A69" s="7">
+        <v>9559407</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="7">
+        <v>63</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F69" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="14">
-        <v>9558735</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="14">
-        <v>38</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>12</v>
+      <c r="A70" s="7">
+        <v>9559408</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="7">
+        <v>68</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>16</v>
@@ -2039,36 +2009,36 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="14">
-        <v>9558736</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="14">
-        <v>27</v>
-      </c>
-      <c r="D71" s="14" t="s">
+      <c r="A71" s="7">
+        <v>9559409</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="7">
+        <v>22</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="14">
-        <v>9558737</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="14">
-        <v>25</v>
-      </c>
-      <c r="D72" s="14" t="s">
+      <c r="A72" s="7">
+        <v>9559410</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="7">
+        <v>22</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="16" t="s">
@@ -2079,277 +2049,277 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="8">
-        <v>9558739</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="6">
-        <v>25</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>12</v>
+      <c r="A73" s="7">
+        <v>9559421</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="7">
+        <v>65</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="8">
-        <v>9558740</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="6">
-        <v>28</v>
-      </c>
-      <c r="D74" s="6" t="s">
+      <c r="A74" s="7">
+        <v>9559422</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="7">
+        <v>60</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="8">
-        <v>9558741</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="6">
-        <v>29</v>
-      </c>
-      <c r="D75" s="6" t="s">
+      <c r="A75" s="7">
+        <v>9559424</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="7">
+        <v>53</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="8">
-        <v>9558742</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="6">
-        <v>26</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="A76" s="7">
+        <v>9559425</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="7">
+        <v>32</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F76" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="8">
-        <v>9558743</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="6">
-        <v>27</v>
-      </c>
-      <c r="D77" s="6" t="s">
+      <c r="A77" s="7">
+        <v>9559426</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="7">
+        <v>49</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F77" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="8">
-        <v>9558744</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="6">
-        <v>71</v>
-      </c>
-      <c r="D78" s="6" t="s">
+      <c r="A78" s="7">
+        <v>9559436</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="7">
+        <v>72</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F78" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="8">
-        <v>9558746</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="6">
-        <v>26</v>
-      </c>
-      <c r="D79" s="6" t="s">
+      <c r="A79" s="7">
+        <v>9559439</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="7">
+        <v>63</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="8">
-        <v>9558747</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="6">
-        <v>27</v>
-      </c>
-      <c r="D80" s="6" t="s">
+      <c r="A80" s="7">
+        <v>9559442</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="7">
+        <v>60</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="8">
-        <v>9558748</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="6">
-        <v>72</v>
-      </c>
-      <c r="D81" s="6" t="s">
+      <c r="A81" s="7">
+        <v>9559445</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="7">
+        <v>56</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F81" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="8">
-        <v>9558750</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="6">
-        <v>52</v>
-      </c>
-      <c r="D82" s="6" t="s">
+      <c r="A82" s="7">
+        <v>9559448</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="7">
+        <v>55</v>
+      </c>
+      <c r="D82" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="8">
-        <v>9558752</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="6">
-        <v>58</v>
-      </c>
-      <c r="D83" s="6" t="s">
+      <c r="A83" s="7">
+        <v>9559449</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="7">
+        <v>57</v>
+      </c>
+      <c r="D83" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F83" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="8">
-        <v>9558753</v>
+      <c r="A84" s="15">
+        <v>9559494</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="6">
-        <v>43</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C84" s="8">
+        <v>54</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="8">
-        <v>9558754</v>
+      <c r="A85" s="15">
+        <v>9559495</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="6">
+        <v>9</v>
+      </c>
+      <c r="C85" s="8">
+        <v>78</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="15">
+        <v>9559496</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="8">
         <v>50</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="8">
-        <v>9558755</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="6">
-        <v>52</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>29</v>
+      <c r="D86" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>16</v>
@@ -2359,17 +2329,17 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="8">
-        <v>9558756</v>
+      <c r="A87" s="15">
+        <v>9559497</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="6">
-        <v>27</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>29</v>
+      <c r="C87" s="8">
+        <v>48</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>16</v>
@@ -2379,16 +2349,16 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="8">
-        <v>9558757</v>
+      <c r="A88" s="15">
+        <v>9559498</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="6">
-        <v>69</v>
-      </c>
-      <c r="D88" s="6" t="s">
+      <c r="C88" s="8">
+        <v>55</v>
+      </c>
+      <c r="D88" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E88" s="16" t="s">
@@ -2400,16 +2370,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="8">
-        <v>9558758</v>
+        <v>9559500</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C89" s="6">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>16</v>
@@ -2420,39 +2390,39 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="8">
-        <v>9558759</v>
+        <v>9559501</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C90" s="6">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="8">
-        <v>9558760</v>
+        <v>9559502</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C91" s="6">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F91" s="16" t="s">
         <v>17</v>
@@ -2460,36 +2430,36 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="8">
-        <v>9559181</v>
+        <v>9559503</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C92" s="6">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F92" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="8">
-        <v>9559182</v>
+      <c r="A93" s="15">
+        <v>9559515</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="6">
-        <v>62</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C93" s="8">
+        <v>41</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>16</v>
@@ -2500,16 +2470,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="8">
-        <v>9559214</v>
+        <v>9559516</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="6">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>16</v>
@@ -2519,14 +2489,14 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="15">
-        <v>9559215</v>
+      <c r="A95" s="8">
+        <v>9559517</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="6">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>13</v>
@@ -2540,13 +2510,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="15">
-        <v>9559494</v>
+        <v>9559518</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="8">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>12</v>
@@ -2559,20 +2529,20 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="15">
-        <v>9559495</v>
+      <c r="A97" s="8">
+        <v>9559520</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="8">
-        <v>78</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>29</v>
+      <c r="C97" s="6">
+        <v>33</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F97" s="16" t="s">
         <v>16</v>
@@ -2580,96 +2550,96 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="15">
-        <v>9559496</v>
+        <v>9559521</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C98" s="8">
         <v>50</v>
       </c>
       <c r="D98" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="8">
+        <v>9559522</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="6">
+        <v>57</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="15">
-        <v>9559497</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="8">
-        <v>48</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="E99" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="15">
-        <v>9559498</v>
+      <c r="A100" s="8">
+        <v>9559523</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="8">
-        <v>55</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C100" s="6">
+        <v>59</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="15">
-        <v>9559515</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="8">
-        <v>41</v>
-      </c>
-      <c r="D101" s="8" t="s">
+      <c r="A101" s="8">
+        <v>9559525</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="11">
+        <v>52</v>
+      </c>
+      <c r="D101" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="15">
-        <v>9559518</v>
+      <c r="A102" s="8">
+        <v>9559526</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="8">
-        <v>45</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>12</v>
+      <c r="C102" s="6">
+        <v>62</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>17</v>
@@ -2679,17 +2649,17 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="15">
-        <v>9559521</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="8">
-        <v>50</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>29</v>
+      <c r="A103" s="8">
+        <v>9559529</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="11">
+        <v>52</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>17</v>
@@ -2699,6 +2669,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F103">
+    <sortCondition ref="A2:A103"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2709,13 +2682,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="17"/>
+    <col min="1" max="1" width="14.140625" style="17" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="17" customWidth="1"/>
     <col min="3" max="5" width="9" style="17"/>
     <col min="6" max="6" width="24.42578125" style="17" customWidth="1"/>
@@ -2816,8 +2787,8 @@
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>16</v>
@@ -2842,8 +2813,8 @@
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>17</v>
@@ -2894,8 +2865,8 @@
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>25</v>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>16</v>
@@ -2920,8 +2891,8 @@
       <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>25</v>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>17</v>
@@ -2946,8 +2917,8 @@
       <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>25</v>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>16</v>
@@ -2972,8 +2943,8 @@
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>25</v>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>16</v>
@@ -2998,8 +2969,8 @@
       <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>25</v>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>16</v>
@@ -3008,29 +2979,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="26" customFormat="1">
-      <c r="A12" s="24">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>128132</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="1">
         <v>52</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="25" t="s">
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3050,8 +3021,8 @@
       <c r="E13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>25</v>
+      <c r="F13" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>16</v>
@@ -3076,8 +3047,8 @@
       <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>25</v>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>16</v>
@@ -3102,8 +3073,8 @@
       <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>25</v>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>16</v>
@@ -3128,91 +3099,91 @@
       <c r="E16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>128140</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1">
+        <v>60</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="20" customFormat="1">
-      <c r="A17" s="18">
-        <v>128140</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="18">
-        <v>60</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="20" customFormat="1">
-      <c r="A18" s="18">
+      <c r="G17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
         <v>128141</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="1">
         <v>48</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="26" customFormat="1">
-      <c r="A19" s="24">
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
         <v>128145</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="1">
         <v>65</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="24" t="s">
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="25" t="s">
+      <c r="F19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3232,8 +3203,8 @@
       <c r="E20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>25</v>
+      <c r="F20" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>16</v>
@@ -3258,8 +3229,8 @@
       <c r="E21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>25</v>
+      <c r="F21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>16</v>
@@ -3311,7 +3282,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>16</v>
@@ -3336,8 +3307,8 @@
       <c r="E24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>25</v>
+      <c r="F24" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>16</v>
@@ -3362,8 +3333,8 @@
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>25</v>
+      <c r="F25" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>16</v>
@@ -3415,7 +3386,7 @@
         <v>29</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>17</v>
@@ -3441,7 +3412,7 @@
         <v>29</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>16</v>
@@ -3467,7 +3438,7 @@
         <v>13</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>16</v>
@@ -3493,7 +3464,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>16</v>
@@ -3518,8 +3489,8 @@
       <c r="E31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>25</v>
+      <c r="F31" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>17</v>
@@ -3571,7 +3542,7 @@
         <v>29</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>16</v>
@@ -3597,7 +3568,7 @@
         <v>12</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>16</v>
@@ -3623,7 +3594,7 @@
         <v>29</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>17</v>
@@ -3649,7 +3620,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>16</v>
@@ -3675,7 +3646,7 @@
         <v>13</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>17</v>
@@ -3700,8 +3671,8 @@
       <c r="E38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>25</v>
+      <c r="F38" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>17</v>
@@ -3727,7 +3698,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>16</v>
@@ -3753,90 +3724,90 @@
         <v>29</v>
       </c>
       <c r="F40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2">
+        <v>9559241</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="2">
+        <v>72</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>9559246</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1">
+        <v>67</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="23" customFormat="1">
-      <c r="A41" s="21">
-        <v>9559241</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="21">
-        <v>72</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="21" t="s">
+      <c r="G42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>9559247</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="1">
+        <v>67</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="20" customFormat="1">
-      <c r="A42" s="18">
-        <v>9559246</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="18">
-        <v>67</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="20" customFormat="1">
-      <c r="A43" s="18">
-        <v>9559247</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="18">
-        <v>67</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="19" t="s">
+      <c r="G43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3857,7 +3828,7 @@
         <v>13</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>16</v>
@@ -3883,38 +3854,38 @@
         <v>13</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>9559261</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1">
+        <v>52</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="20" customFormat="1">
-      <c r="A46" s="18">
-        <v>9559261</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="18">
-        <v>52</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="18" t="s">
+      <c r="G46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3935,7 +3906,7 @@
         <v>29</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>17</v>
@@ -3944,29 +3915,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="23" customFormat="1">
-      <c r="A48" s="21">
+    <row r="48" spans="1:8">
+      <c r="A48" s="5">
         <v>9559267</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="3">
         <v>57</v>
       </c>
-      <c r="D48" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="21" t="s">
+      <c r="D48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="22" t="s">
+      <c r="F48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4013,7 +3984,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>16</v>
@@ -4039,7 +4010,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>16</v>
@@ -4048,29 +4019,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="20" customFormat="1">
-      <c r="A52" s="18">
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
         <v>9559283</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="1">
         <v>85</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="18" t="s">
+      <c r="D52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F52" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="19" t="s">
+      <c r="F52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4090,8 +4061,8 @@
       <c r="E53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>25</v>
+      <c r="F53" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>17</v>
@@ -4116,8 +4087,8 @@
       <c r="E54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>25</v>
+      <c r="F54" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>17</v>
@@ -4142,8 +4113,8 @@
       <c r="E55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>25</v>
+      <c r="F55" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>16</v>
@@ -4168,8 +4139,8 @@
       <c r="E56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>25</v>
+      <c r="F56" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>16</v>
@@ -4220,8 +4191,8 @@
       <c r="E58" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>25</v>
+      <c r="F58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>16</v>
@@ -4246,8 +4217,8 @@
       <c r="E59" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>25</v>
+      <c r="F59" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>16</v>
@@ -4272,8 +4243,8 @@
       <c r="E60" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>25</v>
+      <c r="F60" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>17</v>
@@ -4298,8 +4269,8 @@
       <c r="E61" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>25</v>
+      <c r="F61" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>16</v>
@@ -4350,8 +4321,8 @@
       <c r="E63" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>25</v>
+      <c r="F63" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>17</v>
@@ -4376,8 +4347,8 @@
       <c r="E64" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>25</v>
+      <c r="F64" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>17</v>
@@ -4454,8 +4425,8 @@
       <c r="E67" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>25</v>
+      <c r="F67" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>16</v>
@@ -4480,8 +4451,8 @@
       <c r="E68" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>25</v>
+      <c r="F68" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>17</v>
@@ -4506,8 +4477,8 @@
       <c r="E69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>25</v>
+      <c r="F69" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>16</v>
@@ -4532,8 +4503,8 @@
       <c r="E70" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>25</v>
+      <c r="F70" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>16</v>
@@ -4568,29 +4539,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="20" customFormat="1">
-      <c r="A72" s="18">
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
         <v>9559491</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C72" s="1">
         <v>47</v>
       </c>
-      <c r="D72" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="18" t="s">
+      <c r="D72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="19" t="s">
+      <c r="F72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4610,8 +4581,8 @@
       <c r="E73" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>25</v>
+      <c r="F73" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>17</v>
@@ -4646,29 +4617,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="26" customFormat="1">
-      <c r="A75" s="24">
+    <row r="75" spans="1:8">
+      <c r="A75" s="1">
         <v>9559507</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="1">
         <v>80</v>
       </c>
-      <c r="D75" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" s="25" t="s">
+      <c r="D75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4688,8 +4659,8 @@
       <c r="E76" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>25</v>
+      <c r="F76" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>17</v>
@@ -4714,39 +4685,39 @@
       <c r="E77" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
+        <v>9559547</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="1">
+        <v>63</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G77" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="20" customFormat="1">
-      <c r="A78" s="18">
-        <v>9559547</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78" s="18">
-        <v>63</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="18" t="s">
+      <c r="G78" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4792,8 +4763,8 @@
       <c r="E80" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>25</v>
+      <c r="F80" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>17</v>
@@ -4818,8 +4789,8 @@
       <c r="E81" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>25</v>
+      <c r="F81" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>16</v>
@@ -4844,8 +4815,8 @@
       <c r="E82" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="5" t="s">
-        <v>25</v>
+      <c r="F82" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>16</v>
@@ -4870,8 +4841,8 @@
       <c r="E83" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>25</v>
+      <c r="F83" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>17</v>
@@ -4886,7 +4857,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4894,8 +4864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4940,259 +4910,259 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>9559249</v>
-      </c>
-      <c r="B2" s="2">
-        <v>74</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="s">
+        <v>128110</v>
+      </c>
+      <c r="B2" s="1">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2">
-        <v>9559299</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="1">
+        <v>128120</v>
+      </c>
+      <c r="B3" s="1">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>128123</v>
+      </c>
+      <c r="B4" s="1">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>128124</v>
+      </c>
+      <c r="B5" s="1">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>128137</v>
+      </c>
+      <c r="B6" s="1">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>128142</v>
+      </c>
+      <c r="B7" s="1">
         <v>55</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2">
-        <v>9559557</v>
-      </c>
-      <c r="B4" s="2">
-        <v>65</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>128143</v>
+      </c>
+      <c r="B8" s="1">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2">
-        <v>9559230</v>
-      </c>
-      <c r="B5" s="2">
-        <v>52</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>396607</v>
+      </c>
+      <c r="B9" s="1">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>396608</v>
+      </c>
+      <c r="B10" s="1">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2">
-        <v>9559273</v>
-      </c>
-      <c r="B6" s="2">
-        <v>73</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4">
-        <v>9559549</v>
-      </c>
-      <c r="B7" s="4">
-        <v>72</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4">
-        <v>9559229</v>
-      </c>
-      <c r="B8" s="4">
-        <v>52</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4">
-        <v>9559285</v>
-      </c>
-      <c r="B9" s="4">
-        <v>51</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4">
-        <v>9559536</v>
-      </c>
-      <c r="B10" s="4">
-        <v>66</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="17" t="s">
@@ -5201,16 +5171,16 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4">
-        <v>9559326</v>
+        <v>9559195</v>
       </c>
       <c r="B11" s="4">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>30</v>
@@ -5219,157 +5189,157 @@
         <v>16</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4">
-        <v>9559458</v>
-      </c>
-      <c r="B12" s="4">
-        <v>67</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="A12" s="1">
+        <v>9559196</v>
+      </c>
+      <c r="B12" s="1">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>17</v>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="4">
-        <v>9559554</v>
-      </c>
-      <c r="B13" s="4">
-        <v>51</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="22" customFormat="1">
+      <c r="A13" s="20">
+        <v>9559229</v>
+      </c>
+      <c r="B13" s="20">
+        <v>52</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="22" customFormat="1">
+      <c r="A14" s="20">
+        <v>9559230</v>
+      </c>
+      <c r="B14" s="20">
+        <v>52</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>9559237</v>
+      </c>
+      <c r="B15" s="1">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="4">
-        <v>9559533</v>
-      </c>
-      <c r="B14" s="4">
-        <v>54</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="4">
-        <v>9559195</v>
-      </c>
-      <c r="B15" s="4">
-        <v>63</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1">
-        <v>9559196</v>
-      </c>
-      <c r="B16" s="1">
-        <v>63</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="17" t="s">
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="22" customFormat="1">
+      <c r="A16" s="20">
+        <v>9559249</v>
+      </c>
+      <c r="B16" s="20">
+        <v>74</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5404,24 +5374,24 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>9559268</v>
+        <v>9559258</v>
       </c>
       <c r="B18" s="1">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -5433,28 +5403,28 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>9559269</v>
+        <v>9559259</v>
       </c>
       <c r="B19" s="1">
-        <v>79</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>16</v>
+      <c r="F19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>16</v>
@@ -5462,53 +5432,53 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>9559237</v>
+        <v>9559266</v>
       </c>
       <c r="B20" s="1">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="F20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>9559560</v>
+        <v>9559268</v>
       </c>
       <c r="B21" s="1">
-        <v>37</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -5520,27 +5490,27 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>9559258</v>
+        <v>9559269</v>
       </c>
       <c r="B22" s="1">
         <v>79</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="17" t="s">
@@ -5549,16 +5519,16 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>9559259</v>
+        <v>9559270</v>
       </c>
       <c r="B23" s="1">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>30</v>
@@ -5572,22 +5542,22 @@
       <c r="H23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>16</v>
+      <c r="I23" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>9559270</v>
+        <v>9559271</v>
       </c>
       <c r="B24" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>30</v>
@@ -5599,53 +5569,53 @@
         <v>16</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1">
-        <v>9559271</v>
-      </c>
-      <c r="B25" s="1">
-        <v>60</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="22" customFormat="1">
+      <c r="A25" s="20">
+        <v>9559273</v>
+      </c>
+      <c r="B25" s="20">
+        <v>73</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>9559266</v>
+        <v>9559284</v>
       </c>
       <c r="B26" s="1">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>30</v>
@@ -5657,210 +5627,210 @@
         <v>16</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1">
-        <v>9559553</v>
-      </c>
-      <c r="B27" s="1">
-        <v>66</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="22" customFormat="1">
+      <c r="A27" s="20">
+        <v>9559285</v>
+      </c>
+      <c r="B27" s="20">
+        <v>51</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1">
+      <c r="F27" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="22" customFormat="1">
+      <c r="A28" s="20">
+        <v>9559299</v>
+      </c>
+      <c r="B28" s="20">
+        <v>55</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="19" customFormat="1">
+      <c r="A29" s="1">
         <v>9559300</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>65</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1">
-        <v>9559566</v>
-      </c>
-      <c r="B29" s="1">
-        <v>53</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="19" customFormat="1">
+      <c r="A30" s="1">
+        <v>9559324</v>
+      </c>
+      <c r="B30" s="1">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1">
-        <v>9559572</v>
-      </c>
-      <c r="B30" s="1">
-        <v>56</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="F30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="19" customFormat="1">
       <c r="A31" s="1">
-        <v>9559567</v>
+        <v>9559325</v>
       </c>
       <c r="B31" s="1">
-        <v>73</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="22" customFormat="1">
+      <c r="A32" s="20">
+        <v>9559326</v>
+      </c>
+      <c r="B32" s="20">
+        <v>46</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1">
-        <v>9559568</v>
-      </c>
-      <c r="B32" s="1">
-        <v>68</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="19" customFormat="1">
+      <c r="A33" s="1">
+        <v>9559327</v>
+      </c>
+      <c r="B33" s="1">
+        <v>57</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="1">
-        <v>9559551</v>
-      </c>
-      <c r="B33" s="1">
-        <v>59</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>16</v>
@@ -5868,111 +5838,111 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>9559284</v>
+        <v>9559332</v>
       </c>
       <c r="B34" s="1">
-        <v>21</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="F34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>9559548</v>
+        <v>9559334</v>
       </c>
       <c r="B35" s="1">
-        <v>36</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>12</v>
+        <v>60</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="F35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>9559485</v>
+        <v>9559335</v>
       </c>
       <c r="B36" s="1">
-        <v>63</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="19" customFormat="1">
       <c r="A37" s="1">
-        <v>9559484</v>
+        <v>9559336</v>
       </c>
       <c r="B37" s="1">
-        <v>57</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="F37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -5984,22 +5954,22 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>9559544</v>
+        <v>9559394</v>
       </c>
       <c r="B38" s="1">
-        <v>67</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>12</v>
+        <v>60</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>16</v>
@@ -6007,27 +5977,27 @@
       <c r="H38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>9559543</v>
+        <v>9559395</v>
       </c>
       <c r="B39" s="1">
-        <v>68</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>13</v>
+        <v>67</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="5" t="s">
@@ -6036,56 +6006,56 @@
       <c r="H39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>9559541</v>
+        <v>9559396</v>
       </c>
       <c r="B40" s="1">
-        <v>67</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>7</v>
+        <v>71</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>9559493</v>
+        <v>9559397</v>
       </c>
       <c r="B41" s="1">
-        <v>71</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="5" t="s">
@@ -6094,86 +6064,86 @@
       <c r="H41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="I41" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="19" customFormat="1">
       <c r="A42" s="1">
-        <v>9559506</v>
+        <v>9559399</v>
       </c>
       <c r="B42" s="1">
-        <v>72</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="5" t="s">
+      <c r="F42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="19" customFormat="1">
       <c r="A43" s="1">
-        <v>9559509</v>
+        <v>9559411</v>
       </c>
       <c r="B43" s="1">
-        <v>62</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>9559510</v>
+        <v>9559413</v>
       </c>
       <c r="B44" s="1">
-        <v>68</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>16</v>
@@ -6182,29 +6152,29 @@
         <v>16</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="19" customFormat="1">
       <c r="A45" s="1">
-        <v>9559508</v>
+        <v>9559414</v>
       </c>
       <c r="B45" s="1">
-        <v>55</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="5" t="s">
+      <c r="F45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -6216,21 +6186,21 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>9559512</v>
+        <v>9559415</v>
       </c>
       <c r="B46" s="1">
-        <v>45</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>12</v>
+        <v>58</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="5" t="s">
@@ -6245,22 +6215,22 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>9559511</v>
+        <v>9559417</v>
       </c>
       <c r="B47" s="1">
-        <v>63</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>16</v>
@@ -6272,18 +6242,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" s="19" customFormat="1">
       <c r="A48" s="1">
-        <v>9559538</v>
+        <v>9559418</v>
       </c>
       <c r="B48" s="1">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>30</v>
@@ -6291,57 +6261,57 @@
       <c r="F48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>9559539</v>
+        <v>9559419</v>
       </c>
       <c r="B49" s="1">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>9559540</v>
+        <v>9559420</v>
       </c>
       <c r="B50" s="1">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>30</v>
@@ -6361,111 +6331,111 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>9559325</v>
+        <v>9559429</v>
       </c>
       <c r="B51" s="1">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="19" customFormat="1">
+      <c r="A52" s="1">
+        <v>9559431</v>
+      </c>
+      <c r="B52" s="1">
+        <v>57</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="1">
-        <v>9559530</v>
-      </c>
-      <c r="B52" s="1">
-        <v>75</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="19" customFormat="1">
       <c r="A53" s="1">
-        <v>9559327</v>
+        <v>9559432</v>
       </c>
       <c r="B53" s="1">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>9559535</v>
+        <v>9559433</v>
       </c>
       <c r="B54" s="1">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -6477,16 +6447,16 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>9559531</v>
+        <v>9559434</v>
       </c>
       <c r="B55" s="1">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>30</v>
@@ -6500,51 +6470,51 @@
       <c r="H55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>9559532</v>
+        <v>9559454</v>
       </c>
       <c r="B56" s="1">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>9559537</v>
+        <v>9559455</v>
       </c>
       <c r="B57" s="1">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>32</v>
@@ -6564,19 +6534,19 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>9559324</v>
+        <v>9559456</v>
       </c>
       <c r="B58" s="1">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>16</v>
@@ -6585,146 +6555,146 @@
         <v>16</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>16</v>
+        <v>16</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>9559418</v>
+        <v>9559457</v>
       </c>
       <c r="B59" s="1">
+        <v>54</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="22" customFormat="1">
+      <c r="A60" s="20">
+        <v>9559458</v>
+      </c>
+      <c r="B60" s="20">
+        <v>67</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="19" customFormat="1">
+      <c r="A61" s="1">
+        <v>9559484</v>
+      </c>
+      <c r="B61" s="1">
         <v>57</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1">
-        <v>9559419</v>
-      </c>
-      <c r="B60" s="1">
-        <v>49</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1">
-        <v>9559420</v>
-      </c>
-      <c r="B61" s="1">
-        <v>79</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="19" customFormat="1">
       <c r="A62" s="1">
-        <v>9559394</v>
+        <v>9559485</v>
       </c>
       <c r="B62" s="1">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>9559413</v>
+        <v>9559493</v>
       </c>
       <c r="B63" s="1">
-        <v>42</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>7</v>
+        <v>71</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>16</v>
@@ -6733,27 +6703,27 @@
         <v>16</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>9559395</v>
+        <v>9559506</v>
       </c>
       <c r="B64" s="1">
-        <v>67</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>16</v>
+        <v>72</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>16</v>
@@ -6765,15 +6735,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" s="19" customFormat="1">
       <c r="A65" s="1">
-        <v>9559396</v>
+        <v>9559508</v>
       </c>
       <c r="B65" s="1">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>12</v>
@@ -6784,62 +6754,62 @@
       <c r="F65" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="19" customFormat="1">
       <c r="A66" s="1">
-        <v>9559411</v>
+        <v>9559509</v>
       </c>
       <c r="B66" s="1">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>9559415</v>
+        <v>9559510</v>
       </c>
       <c r="B67" s="1">
-        <v>58</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="5" t="s">
@@ -6854,79 +6824,79 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>9559414</v>
+        <v>9559511</v>
       </c>
       <c r="B68" s="1">
-        <v>42</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I68" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>9559399</v>
+        <v>9559512</v>
       </c>
       <c r="B69" s="1">
-        <v>42</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>9559397</v>
+        <v>9559513</v>
       </c>
       <c r="B70" s="1">
-        <v>68</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="5" t="s">
@@ -6935,51 +6905,51 @@
       <c r="H70" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I70" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>9559336</v>
+        <v>9559530</v>
       </c>
       <c r="B71" s="1">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="I71" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>9559335</v>
+        <v>9559531</v>
       </c>
       <c r="B72" s="1">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>30</v>
@@ -6993,22 +6963,22 @@
       <c r="H72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="I72" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="19" customFormat="1">
       <c r="A73" s="1">
-        <v>9559334</v>
+        <v>9559532</v>
       </c>
       <c r="B73" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>30</v>
@@ -7020,111 +6990,111 @@
         <v>16</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1">
-        <v>9559332</v>
-      </c>
-      <c r="B74" s="1">
-        <v>76</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="1" t="s">
+    <row r="74" spans="1:9" s="22" customFormat="1">
+      <c r="A74" s="20">
+        <v>9559533</v>
+      </c>
+      <c r="B74" s="20">
+        <v>54</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I74" s="17" t="s">
+      <c r="F74" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>9559457</v>
+        <v>9559535</v>
       </c>
       <c r="B75" s="1">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="1">
-        <v>9559456</v>
-      </c>
-      <c r="B76" s="1">
-        <v>67</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I76" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="22" customFormat="1">
+      <c r="A76" s="20">
+        <v>9559536</v>
+      </c>
+      <c r="B76" s="20">
+        <v>66</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>9559455</v>
+        <v>9559537</v>
       </c>
       <c r="B77" s="1">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>32</v>
@@ -7144,10 +7114,10 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>396608</v>
+        <v>9559538</v>
       </c>
       <c r="B78" s="1">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>7</v>
@@ -7156,10 +7126,10 @@
         <v>12</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>16</v>
@@ -7168,50 +7138,50 @@
         <v>16</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="19" customFormat="1">
       <c r="A79" s="1">
-        <v>396607</v>
+        <v>9559539</v>
       </c>
       <c r="B79" s="1">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I79" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="19" customFormat="1">
       <c r="A80" s="1">
-        <v>9559434</v>
+        <v>9559540</v>
       </c>
       <c r="B80" s="1">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>30</v>
@@ -7219,120 +7189,120 @@
       <c r="F80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I80" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="I80" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="19" customFormat="1">
       <c r="A81" s="1">
-        <v>9559433</v>
+        <v>9559541</v>
       </c>
       <c r="B81" s="1">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I81" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>9559432</v>
+        <v>9559543</v>
       </c>
       <c r="B82" s="1">
-        <v>60</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>17</v>
+      <c r="F82" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>9559431</v>
+        <v>9559544</v>
       </c>
       <c r="B83" s="1">
-        <v>57</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>9559429</v>
+        <v>9559548</v>
       </c>
       <c r="B84" s="1">
-        <v>51</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="5" t="s">
@@ -7345,53 +7315,53 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="1">
-        <v>9559417</v>
-      </c>
-      <c r="B85" s="1">
-        <v>62</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I85" s="17" t="s">
+    <row r="85" spans="1:9" s="22" customFormat="1">
+      <c r="A85" s="20">
+        <v>9559549</v>
+      </c>
+      <c r="B85" s="20">
+        <v>72</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>128110</v>
+        <v>9559551</v>
       </c>
       <c r="B86" s="1">
-        <v>64</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>16</v>
@@ -7399,22 +7369,22 @@
       <c r="H86" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I86" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="I86" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="19" customFormat="1">
       <c r="A87" s="1">
-        <v>128120</v>
+        <v>9559553</v>
       </c>
       <c r="B87" s="1">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>30</v>
@@ -7422,92 +7392,92 @@
       <c r="F87" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G87" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I87" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="1">
-        <v>128123</v>
-      </c>
-      <c r="B88" s="1">
-        <v>58</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="22" customFormat="1">
+      <c r="A88" s="20">
+        <v>9559554</v>
+      </c>
+      <c r="B88" s="20">
+        <v>51</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="1">
-        <v>128124</v>
-      </c>
-      <c r="B89" s="1">
-        <v>76</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>17</v>
+      <c r="F88" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="22" customFormat="1">
+      <c r="A89" s="20">
+        <v>9559557</v>
+      </c>
+      <c r="B89" s="20">
+        <v>65</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>128137</v>
+        <v>9559560</v>
       </c>
       <c r="B90" s="1">
-        <v>76</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>16</v>
@@ -7516,18 +7486,18 @@
         <v>16</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="19" customFormat="1">
       <c r="A91" s="1">
-        <v>128142</v>
+        <v>9559566</v>
       </c>
       <c r="B91" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>13</v>
@@ -7538,36 +7508,36 @@
       <c r="F91" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G91" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>128143</v>
+        <v>9559567</v>
       </c>
       <c r="B92" s="1">
-        <v>62</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="1" t="s">
+      <c r="F92" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H92" s="1" t="s">
@@ -7577,53 +7547,53 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" s="19" customFormat="1">
       <c r="A93" s="1">
-        <v>9559513</v>
+        <v>9559568</v>
       </c>
       <c r="B93" s="1">
-        <v>62</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>12</v>
+        <v>68</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I93" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>9559454</v>
+        <v>9559572</v>
       </c>
       <c r="B94" s="1">
-        <v>58</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>16</v>
@@ -7632,11 +7602,15 @@
         <v>16</v>
       </c>
       <c r="I94" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I94">
+    <sortCondition ref="A2:A94"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>